--- a/Midterm-exam/evidence/spreadsheets/per_site/www.lorenskog.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.lorenskog.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16833.441</v>
+        <v>15297.624999999995</v>
       </c>
       <c r="C2">
-        <v>9306.855</v>
+        <v>9379.411</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>16872.033499999998</v>
+        <v>15321.006699999994</v>
       </c>
       <c r="F2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9306.855</v>
+        <v>9379.411</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2">
-        <v>2587824</v>
+        <v>2297354</v>
       </c>
       <c r="K2">
         <v>59</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14889.792999999998</v>
+        <v>14265.7335</v>
       </c>
       <c r="C3">
-        <v>8048.800000000001</v>
+        <v>8316.996500000001</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>14912.792300000001</v>
+        <v>14273.51215</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8048.800000000001</v>
+        <v>8316.996500000001</v>
       </c>
       <c r="I3">
         <v>57</v>
       </c>
       <c r="J3">
-        <v>2337139</v>
+        <v>2046789</v>
       </c>
       <c r="K3">
         <v>59</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15565.180000000002</v>
+        <v>13352.910999999995</v>
       </c>
       <c r="C4">
-        <v>8141.170225000002</v>
+        <v>8158.742999999999</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>15565.558500000003</v>
+        <v>13368.503699999994</v>
       </c>
       <c r="F4">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8141.170225000002</v>
+        <v>8158.742999999999</v>
       </c>
       <c r="I4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4">
-        <v>2337107</v>
+        <v>2046730</v>
       </c>
       <c r="K4">
         <v>59</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>15565.180000000002</v>
+        <v>14265.7335</v>
       </c>
       <c r="C5">
-        <v>8141.170225000002</v>
+        <v>8316.996500000001</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5">
-        <v>15565.558500000003</v>
+        <v>14273.51215</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8141.170225000002</v>
+        <v>8316.996500000001</v>
       </c>
       <c r="I5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5">
-        <v>2337139</v>
+        <v>2046789</v>
       </c>
       <c r="K5">
         <v>59</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>19119</v>
+        <v>18990</v>
       </c>
       <c r="F2">
-        <v>58500</v>
+        <v>58295</v>
       </c>
       <c r="G2">
-        <v>0.005560053746999999</v>
+        <v>0.005522538869999999</v>
       </c>
       <c r="H2">
-        <v>0.007324133286600001</v>
+        <v>0.007274715786</v>
       </c>
     </row>
     <row r="3">
@@ -660,16 +660,16 @@
         <v>text/css</v>
       </c>
       <c r="E3">
-        <v>28186</v>
+        <v>28150</v>
       </c>
       <c r="F3">
         <v>190673</v>
       </c>
       <c r="G3">
-        <v>0.008196855218</v>
+        <v>0.008186385949999998</v>
       </c>
       <c r="H3">
-        <v>0.010797532340400002</v>
+        <v>0.01078374141</v>
       </c>
     </row>
     <row r="4">
@@ -686,16 +686,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E4">
-        <v>26246</v>
+        <v>26223</v>
       </c>
       <c r="F4">
         <v>87701</v>
       </c>
       <c r="G4">
-        <v>0.0076326779979999995</v>
+        <v>0.007625989298999999</v>
       </c>
       <c r="H4">
-        <v>0.010054354424400003</v>
+        <v>0.010045543552200002</v>
       </c>
     </row>
     <row r="5">
@@ -712,16 +712,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E5">
-        <v>12291</v>
+        <v>12284</v>
       </c>
       <c r="F5">
         <v>31186</v>
       </c>
       <c r="G5">
-        <v>0.0035743825829999995</v>
+        <v>0.0035723468919999996</v>
       </c>
       <c r="H5">
-        <v>0.004708453487400001</v>
+        <v>0.0047057719176</v>
       </c>
     </row>
     <row r="6">
@@ -868,16 +868,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E11">
-        <v>43688</v>
+        <v>43667</v>
       </c>
       <c r="F11">
         <v>97169</v>
       </c>
       <c r="G11">
-        <v>0.012705038343999999</v>
+        <v>0.012698931270999999</v>
       </c>
       <c r="H11">
-        <v>0.016736060203200002</v>
+        <v>0.0167280154938</v>
       </c>
     </row>
     <row r="12">
@@ -894,16 +894,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E12">
-        <v>5181</v>
+        <v>5180</v>
       </c>
       <c r="F12">
         <v>10057</v>
       </c>
       <c r="G12">
-        <v>0.0015067021529999998</v>
+        <v>0.0015064113399999998</v>
       </c>
       <c r="H12">
-        <v>0.0019847447334000005</v>
+        <v>0.0019843616520000005</v>
       </c>
     </row>
     <row r="13">
@@ -920,16 +920,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E13">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="F13">
         <v>13616</v>
       </c>
       <c r="G13">
-        <v>0.0015555587369999997</v>
+        <v>0.0015549771109999997</v>
       </c>
       <c r="H13">
-        <v>0.0020491024086000003</v>
+        <v>0.0020483362458000006</v>
       </c>
     </row>
     <row r="14">
@@ -946,16 +946,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E14">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="F14">
         <v>8009</v>
       </c>
       <c r="G14">
-        <v>0.0009160609499999999</v>
+        <v>0.0009154793239999999</v>
       </c>
       <c r="H14">
-        <v>0.00120670641</v>
+        <v>0.0012059402472000002</v>
       </c>
     </row>
     <row r="15">
@@ -1024,16 +1024,16 @@
         <v>text/css</v>
       </c>
       <c r="E17">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="F17">
         <v>9558</v>
       </c>
       <c r="G17">
-        <v>0.0009233312749999999</v>
+        <v>0.0009227496489999998</v>
       </c>
       <c r="H17">
-        <v>0.0012162834450000003</v>
+        <v>0.0012155172822000003</v>
       </c>
     </row>
     <row r="18">
@@ -1128,16 +1128,16 @@
         <v>text/css</v>
       </c>
       <c r="E21">
-        <v>21178</v>
+        <v>21145</v>
       </c>
       <c r="F21">
         <v>122955</v>
       </c>
       <c r="G21">
-        <v>0.006158837713999999</v>
+        <v>0.006149240885</v>
       </c>
       <c r="H21">
-        <v>0.008112897889200001</v>
+        <v>0.008100256203</v>
       </c>
     </row>
     <row r="22">
@@ -1249,25 +1249,25 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i666a81bd-00f9-49ac-a4fd-7b7f98f3ed85/w1920/h1080/q13228/k2ea7bdc32116/tsk-okt-print-a3-eller-a4.jpg</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/ie2aac308-528b-4c39-bbfb-48170d3a0acd/w1920/h1080/k1a9b5eb19e2a/trygg-i-ungdomsland-banner-til-nettside-beskjart.png</v>
       </c>
       <c r="C26" t="str">
         <v>Image</v>
       </c>
       <c r="D26" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E26">
-        <v>123388</v>
+        <v>71440</v>
       </c>
       <c r="F26">
-        <v>122993</v>
+        <v>71024</v>
       </c>
       <c r="G26">
-        <v>0.035882834444</v>
+        <v>0.02077568072</v>
       </c>
       <c r="H26">
-        <v>0.0472676477832</v>
+        <v>0.027367335216</v>
       </c>
     </row>
     <row r="27">
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i818d2eb7-99f5-407a-827c-7ffc9c7378e2/w1920/h1080/kfb64b476d30a/bilder_av_lorenskog_kommune_landskap_og_bygninger_lor_01118_foto_jonas_ruud.JPG</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i124a37e6-3c89-4de1-9076-7342317e4cfd/w1920/h1080/kaa39f6713f54/egenberedskap.jpg</v>
       </c>
       <c r="C27" t="str">
         <v>Image</v>
@@ -1284,16 +1284,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E27">
-        <v>376017</v>
+        <v>56241</v>
       </c>
       <c r="F27">
-        <v>375572</v>
+        <v>55859</v>
       </c>
       <c r="G27">
-        <v>0.10935063182099998</v>
+        <v>0.016355613932999998</v>
       </c>
       <c r="H27">
-        <v>0.1440451187838</v>
+        <v>0.021544881017399996</v>
       </c>
     </row>
     <row r="28">
@@ -1301,25 +1301,25 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i2194c9b1-73a2-4d16-9d84-778c17ef2cb4/w1920/h1080/q8533/kdb7aed0cc840/microsoftteams-image.png</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i666a81bd-00f9-49ac-a4fd-7b7f98f3ed85/w1920/h1080/q13228/k2ea7bdc32116/tsk-okt-print-a3-eller-a4.jpg</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
       </c>
       <c r="D28" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E28">
-        <v>41863</v>
+        <v>123388</v>
       </c>
       <c r="F28">
-        <v>41475</v>
+        <v>122993</v>
       </c>
       <c r="G28">
-        <v>0.012174304618999997</v>
+        <v>0.035882834444</v>
       </c>
       <c r="H28">
-        <v>0.016036936648200002</v>
+        <v>0.0472676477832</v>
       </c>
     </row>
     <row r="29">
@@ -1466,16 +1466,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E34">
-        <v>6117</v>
+        <v>6114</v>
       </c>
       <c r="F34">
         <v>16716</v>
       </c>
       <c r="G34">
-        <v>0.0017789031209999998</v>
+        <v>0.0017780306819999998</v>
       </c>
       <c r="H34">
-        <v>0.0023433089238</v>
+        <v>0.0023421596796000003</v>
       </c>
     </row>
     <row r="35">
@@ -1492,16 +1492,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E35">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="F35">
         <v>5038</v>
       </c>
       <c r="G35">
-        <v>0.000762511686</v>
+        <v>0.0007619300599999999</v>
       </c>
       <c r="H35">
-        <v>0.0010044394308</v>
+        <v>0.001003673268</v>
       </c>
     </row>
     <row r="36">
@@ -1518,16 +1518,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E36">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F36">
         <v>4807</v>
       </c>
       <c r="G36">
-        <v>0.000672359656</v>
+        <v>0.0006717780299999999</v>
       </c>
       <c r="H36">
-        <v>0.0008856841968000002</v>
+        <v>0.000884918034</v>
       </c>
     </row>
     <row r="37">
@@ -1674,16 +1674,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E42">
-        <v>8880</v>
+        <v>8878</v>
       </c>
       <c r="F42">
-        <v>30058</v>
+        <v>30057</v>
       </c>
       <c r="G42">
-        <v>0.00258241944</v>
+        <v>0.002581837814</v>
       </c>
       <c r="H42">
-        <v>0.003401762832</v>
+        <v>0.003400996669200001</v>
       </c>
     </row>
     <row r="43">
@@ -1986,16 +1986,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E54">
-        <v>182658</v>
+        <v>182654</v>
       </c>
       <c r="F54">
         <v>182292</v>
       </c>
       <c r="G54">
-        <v>0.053119320953999995</v>
+        <v>0.05311815770199999</v>
       </c>
       <c r="H54">
-        <v>0.06997288236120001</v>
+        <v>0.0699713500356</v>
       </c>
     </row>
     <row r="55">
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>https://speech19.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech2.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C55" t="str">
         <v>Script</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>https://speech19.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech2.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C56" t="str">
         <v>Script</v>
@@ -2038,16 +2038,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E56">
-        <v>13136</v>
+        <v>13134</v>
       </c>
       <c r="F56">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="G56">
-        <v>0.0038201195679999993</v>
+        <v>0.0038195379419999997</v>
       </c>
       <c r="H56">
-        <v>0.005032157270400001</v>
+        <v>0.005031391107600001</v>
       </c>
     </row>
     <row r="57">
@@ -2168,16 +2168,16 @@
         <v>text/html</v>
       </c>
       <c r="E61">
-        <v>19157</v>
+        <v>19006</v>
       </c>
       <c r="F61">
-        <v>58500</v>
+        <v>58295</v>
       </c>
       <c r="G61">
-        <v>0.005571104640999999</v>
+        <v>0.005527191877999999</v>
       </c>
       <c r="H61">
-        <v>0.0073386903798000015</v>
+        <v>0.007280845088400001</v>
       </c>
     </row>
     <row r="62">
@@ -2783,25 +2783,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i666a81bd-00f9-49ac-a4fd-7b7f98f3ed85/w1920/h1080/q13228/k2ea7bdc32116/tsk-okt-print-a3-eller-a4.jpg</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/ie2aac308-528b-4c39-bbfb-48170d3a0acd/w1920/h1080/k1a9b5eb19e2a/trygg-i-ungdomsland-banner-til-nettside-beskjart.png</v>
       </c>
       <c r="C85" t="str">
         <v>Image</v>
       </c>
       <c r="D85" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E85">
-        <v>123388</v>
+        <v>71440</v>
       </c>
       <c r="F85">
-        <v>122993</v>
+        <v>71024</v>
       </c>
       <c r="G85">
-        <v>0.035882834444</v>
+        <v>0.02077568072</v>
       </c>
       <c r="H85">
-        <v>0.0472676477832</v>
+        <v>0.027367335216</v>
       </c>
     </row>
     <row r="86">
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i818d2eb7-99f5-407a-827c-7ffc9c7378e2/w1920/h1080/kfb64b476d30a/bilder_av_lorenskog_kommune_landskap_og_bygninger_lor_01118_foto_jonas_ruud.JPG</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i124a37e6-3c89-4de1-9076-7342317e4cfd/w1920/h1080/kaa39f6713f54/egenberedskap.jpg</v>
       </c>
       <c r="C86" t="str">
         <v>Image</v>
@@ -2818,16 +2818,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E86">
-        <v>376017</v>
+        <v>56241</v>
       </c>
       <c r="F86">
-        <v>375572</v>
+        <v>55859</v>
       </c>
       <c r="G86">
-        <v>0.10935063182099998</v>
+        <v>0.016355613932999998</v>
       </c>
       <c r="H86">
-        <v>0.1440451187838</v>
+        <v>0.021544881017399996</v>
       </c>
     </row>
     <row r="87">
@@ -2835,25 +2835,25 @@
         <v>2</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i2194c9b1-73a2-4d16-9d84-778c17ef2cb4/w1920/h1080/q8533/kdb7aed0cc840/microsoftteams-image.png</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i666a81bd-00f9-49ac-a4fd-7b7f98f3ed85/w1920/h1080/q13228/k2ea7bdc32116/tsk-okt-print-a3-eller-a4.jpg</v>
       </c>
       <c r="C87" t="str">
         <v>Image</v>
       </c>
       <c r="D87" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E87">
-        <v>41863</v>
+        <v>123388</v>
       </c>
       <c r="F87">
-        <v>41475</v>
+        <v>122993</v>
       </c>
       <c r="G87">
-        <v>0.012174304618999997</v>
+        <v>0.035882834444</v>
       </c>
       <c r="H87">
-        <v>0.016036936648200002</v>
+        <v>0.0472676477832</v>
       </c>
     </row>
     <row r="88">
@@ -3156,16 +3156,16 @@
         <v>text/css</v>
       </c>
       <c r="E99">
-        <v>683</v>
+        <v>1054</v>
       </c>
       <c r="F99">
         <v>7704</v>
       </c>
       <c r="G99">
-        <v>0.00019862527899999999</v>
+        <v>0.0003065169019999999</v>
       </c>
       <c r="H99">
-        <v>0.0002616445962</v>
+        <v>0.00040376779559999997</v>
       </c>
     </row>
     <row r="100">
@@ -3182,16 +3182,16 @@
         <v>text/css</v>
       </c>
       <c r="E100">
-        <v>961</v>
+        <v>590</v>
       </c>
       <c r="F100">
         <v>1803</v>
       </c>
       <c r="G100">
-        <v>0.00027947129299999996</v>
+        <v>0.00017157967</v>
       </c>
       <c r="H100">
-        <v>0.0003681412254</v>
+        <v>0.00022601802599999998</v>
       </c>
     </row>
     <row r="101">
@@ -3520,16 +3520,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E113">
-        <v>182653</v>
+        <v>182654</v>
       </c>
       <c r="F113">
         <v>182292</v>
       </c>
       <c r="G113">
-        <v>0.05311786688899999</v>
+        <v>0.05311815770199999</v>
       </c>
       <c r="H113">
-        <v>0.0699709669542</v>
+        <v>0.0699713500356</v>
       </c>
     </row>
     <row r="114">
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="B114" t="str">
-        <v>https://speech19.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech13.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C114" t="str">
         <v>Script</v>
@@ -3563,7 +3563,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="str">
-        <v>https://speech19.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech13.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C115" t="str">
         <v>Script</v>
@@ -3572,16 +3572,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E115">
-        <v>13136</v>
+        <v>13135</v>
       </c>
       <c r="F115">
         <v>42732</v>
       </c>
       <c r="G115">
-        <v>0.0038201195679999993</v>
+        <v>0.0038198287549999995</v>
       </c>
       <c r="H115">
-        <v>0.005032157270400001</v>
+        <v>0.005031774189000001</v>
       </c>
     </row>
     <row r="116">
@@ -3702,16 +3702,16 @@
         <v>text/html</v>
       </c>
       <c r="E120">
-        <v>19152</v>
+        <v>18971</v>
       </c>
       <c r="F120">
-        <v>58500</v>
+        <v>58295</v>
       </c>
       <c r="G120">
-        <v>0.005569650575999999</v>
+        <v>0.005517013422999999</v>
       </c>
       <c r="H120">
-        <v>0.007336774972800001</v>
+        <v>0.0072674372394000005</v>
       </c>
     </row>
     <row r="121">
@@ -4317,25 +4317,25 @@
         <v>3</v>
       </c>
       <c r="B144" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i666a81bd-00f9-49ac-a4fd-7b7f98f3ed85/w1920/h1080/q13228/k2ea7bdc32116/tsk-okt-print-a3-eller-a4.jpg</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/ie2aac308-528b-4c39-bbfb-48170d3a0acd/w1920/h1080/k1a9b5eb19e2a/trygg-i-ungdomsland-banner-til-nettside-beskjart.png</v>
       </c>
       <c r="C144" t="str">
         <v>Image</v>
       </c>
       <c r="D144" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E144">
-        <v>123388</v>
+        <v>71440</v>
       </c>
       <c r="F144">
-        <v>122993</v>
+        <v>71024</v>
       </c>
       <c r="G144">
-        <v>0.035882834444</v>
+        <v>0.02077568072</v>
       </c>
       <c r="H144">
-        <v>0.0472676477832</v>
+        <v>0.027367335216</v>
       </c>
     </row>
     <row r="145">
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
       <c r="B145" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i818d2eb7-99f5-407a-827c-7ffc9c7378e2/w1920/h1080/kfb64b476d30a/bilder_av_lorenskog_kommune_landskap_og_bygninger_lor_01118_foto_jonas_ruud.JPG</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i124a37e6-3c89-4de1-9076-7342317e4cfd/w1920/h1080/kaa39f6713f54/egenberedskap.jpg</v>
       </c>
       <c r="C145" t="str">
         <v>Image</v>
@@ -4352,16 +4352,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E145">
-        <v>376017</v>
+        <v>56241</v>
       </c>
       <c r="F145">
-        <v>375572</v>
+        <v>55859</v>
       </c>
       <c r="G145">
-        <v>0.10935063182099998</v>
+        <v>0.016355613932999998</v>
       </c>
       <c r="H145">
-        <v>0.1440451187838</v>
+        <v>0.021544881017399996</v>
       </c>
     </row>
     <row r="146">
@@ -4369,25 +4369,25 @@
         <v>3</v>
       </c>
       <c r="B146" t="str">
-        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i2194c9b1-73a2-4d16-9d84-778c17ef2cb4/w1920/h1080/q8533/kdb7aed0cc840/microsoftteams-image.png</v>
+        <v>https://www.lorenskog.kommune.no/handlers/bv.ashx/i666a81bd-00f9-49ac-a4fd-7b7f98f3ed85/w1920/h1080/q13228/k2ea7bdc32116/tsk-okt-print-a3-eller-a4.jpg</v>
       </c>
       <c r="C146" t="str">
         <v>Image</v>
       </c>
       <c r="D146" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E146">
-        <v>41863</v>
+        <v>123388</v>
       </c>
       <c r="F146">
-        <v>41475</v>
+        <v>122993</v>
       </c>
       <c r="G146">
-        <v>0.012174304618999997</v>
+        <v>0.035882834444</v>
       </c>
       <c r="H146">
-        <v>0.016036936648200002</v>
+        <v>0.0472676477832</v>
       </c>
     </row>
     <row r="147">
@@ -4690,16 +4690,16 @@
         <v>text/css</v>
       </c>
       <c r="E158">
-        <v>1054</v>
+        <v>660</v>
       </c>
       <c r="F158">
         <v>7704</v>
       </c>
       <c r="G158">
-        <v>0.0003065169019999999</v>
+        <v>0.00019193657999999999</v>
       </c>
       <c r="H158">
-        <v>0.00040376779559999997</v>
+        <v>0.000252833724</v>
       </c>
     </row>
     <row r="159">
@@ -4716,16 +4716,16 @@
         <v>text/css</v>
       </c>
       <c r="E159">
-        <v>567</v>
+        <v>961</v>
       </c>
       <c r="F159">
         <v>1803</v>
       </c>
       <c r="G159">
-        <v>0.000164890971</v>
+        <v>0.00027947129299999996</v>
       </c>
       <c r="H159">
-        <v>0.00021720715380000002</v>
+        <v>0.0003681412254</v>
       </c>
     </row>
     <row r="160">
@@ -4742,16 +4742,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E160">
-        <v>8878</v>
+        <v>8879</v>
       </c>
       <c r="F160">
         <v>30057</v>
       </c>
       <c r="G160">
-        <v>0.002581837814</v>
+        <v>0.0025821286269999996</v>
       </c>
       <c r="H160">
-        <v>0.003400996669200001</v>
+        <v>0.0034013797505999996</v>
       </c>
     </row>
     <row r="161">
@@ -5054,16 +5054,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E172">
-        <v>182653</v>
+        <v>182654</v>
       </c>
       <c r="F172">
         <v>182292</v>
       </c>
       <c r="G172">
-        <v>0.05311786688899999</v>
+        <v>0.05311815770199999</v>
       </c>
       <c r="H172">
-        <v>0.0699709669542</v>
+        <v>0.0699713500356</v>
       </c>
     </row>
     <row r="173">
@@ -5071,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="str">
-        <v>https://speech1.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech7.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C173" t="str">
         <v>Script</v>
@@ -5097,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="str">
-        <v>https://speech1.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech7.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C174" t="str">
         <v>Script</v>
@@ -5106,16 +5106,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E174">
-        <v>13134</v>
+        <v>13135</v>
       </c>
       <c r="F174">
         <v>42731</v>
       </c>
       <c r="G174">
-        <v>0.0038195379419999997</v>
+        <v>0.0038198287549999995</v>
       </c>
       <c r="H174">
-        <v>0.005031391107600001</v>
+        <v>0.005031774189000001</v>
       </c>
     </row>
     <row r="175">
@@ -5258,10 +5258,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>57428</v>
+        <v>56967</v>
       </c>
       <c r="D2">
-        <v>175500</v>
+        <v>174885</v>
       </c>
     </row>
     <row r="3">
@@ -5272,7 +5272,7 @@
         <v>48</v>
       </c>
       <c r="C3">
-        <v>338159</v>
+        <v>338088</v>
       </c>
       <c r="D3">
         <v>1798389</v>
@@ -5286,10 +5286,10 @@
         <v>63</v>
       </c>
       <c r="C4">
-        <v>2117395</v>
+        <v>2117329</v>
       </c>
       <c r="D4">
-        <v>8430841</v>
+        <v>8430839</v>
       </c>
     </row>
     <row r="5">
@@ -5300,10 +5300,10 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>3485282</v>
+        <v>2614685</v>
       </c>
       <c r="D5">
-        <v>3581646</v>
+        <v>2711154</v>
       </c>
     </row>
     <row r="6">
@@ -5314,7 +5314,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1197491</v>
+        <v>1197489</v>
       </c>
       <c r="D6">
         <v>1195224</v>
@@ -5381,13 +5381,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2587824</v>
+        <v>2297354</v>
       </c>
       <c r="C2">
-        <v>0.7525728609119998</v>
+        <v>0.668100408802</v>
       </c>
       <c r="D2">
-        <v>0.9913472408735999</v>
+        <v>0.8800735866156001</v>
       </c>
     </row>
     <row r="3">
@@ -5395,13 +5395,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2337139</v>
+        <v>2046789</v>
       </c>
       <c r="C3">
-        <v>0.6796704040069999</v>
+        <v>0.595232849457</v>
       </c>
       <c r="D3">
-        <v>0.8953144801146</v>
+        <v>0.7840867956245998</v>
       </c>
     </row>
     <row r="4">
@@ -5409,13 +5409,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2337107</v>
+        <v>2046730</v>
       </c>
       <c r="C4">
-        <v>0.6796610979909998</v>
+        <v>0.5952156914899999</v>
       </c>
       <c r="D4">
-        <v>0.8953022215098002</v>
+        <v>0.7840641938220001</v>
       </c>
     </row>
     <row r="5">
@@ -5423,13 +5423,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>2337139</v>
+        <v>2046789</v>
       </c>
       <c r="C5">
-        <v>0.6796704040069999</v>
+        <v>0.595232849457</v>
       </c>
       <c r="D5">
-        <v>0.8953144801146</v>
+        <v>0.7840867956245998</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.lorenskog.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.lorenskog.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15297.624999999995</v>
+        <v>15251.521999999997</v>
       </c>
       <c r="C2">
-        <v>9379.411</v>
+        <v>9337.728</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>15321.006699999994</v>
+        <v>15274.856599999997</v>
       </c>
       <c r="F2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9379.411</v>
+        <v>9337.728</v>
       </c>
       <c r="I2">
         <v>56</v>
       </c>
       <c r="J2">
-        <v>2297354</v>
+        <v>2297411</v>
       </c>
       <c r="K2">
         <v>59</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14265.7335</v>
+        <v>15257.224999999999</v>
       </c>
       <c r="C3">
-        <v>8316.996500000001</v>
+        <v>9503.4025</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>14273.51215</v>
+        <v>15272.872899999998</v>
       </c>
       <c r="F3">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8316.996500000001</v>
+        <v>9503.4025</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3">
-        <v>2046789</v>
+        <v>2297397</v>
       </c>
       <c r="K3">
         <v>59</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13352.910999999995</v>
+        <v>14203.511999999999</v>
       </c>
       <c r="C4">
-        <v>8158.742999999999</v>
+        <v>8633.497000000001</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="E4">
-        <v>13368.503699999994</v>
+        <v>14219.1342</v>
       </c>
       <c r="F4">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8158.742999999999</v>
+        <v>8633.497000000001</v>
       </c>
       <c r="I4">
         <v>56</v>
       </c>
       <c r="J4">
-        <v>2046730</v>
+        <v>2173964</v>
       </c>
       <c r="K4">
         <v>59</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>14265.7335</v>
+        <v>15251.521999999997</v>
       </c>
       <c r="C5">
-        <v>8316.996500000001</v>
+        <v>9337.728</v>
       </c>
       <c r="D5">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5">
-        <v>14273.51215</v>
+        <v>15272.872899999998</v>
       </c>
       <c r="F5">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8316.996500000001</v>
+        <v>9337.728</v>
       </c>
       <c r="I5">
         <v>56</v>
       </c>
       <c r="J5">
-        <v>2046789</v>
+        <v>2297397</v>
       </c>
       <c r="K5">
         <v>59</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>18990</v>
+        <v>19027</v>
       </c>
       <c r="F2">
         <v>58295</v>
       </c>
       <c r="G2">
-        <v>0.005522538869999999</v>
+        <v>0.005533298950999999</v>
       </c>
       <c r="H2">
-        <v>0.007274715786</v>
+        <v>0.007288889797800001</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         <v>text/css</v>
       </c>
       <c r="E9">
-        <v>19904</v>
+        <v>19905</v>
       </c>
       <c r="F9">
         <v>134048</v>
       </c>
       <c r="G9">
-        <v>0.005788341951999999</v>
+        <v>0.005788632764999999</v>
       </c>
       <c r="H9">
-        <v>0.007624852185600002</v>
+        <v>0.007625235267000001</v>
       </c>
     </row>
     <row r="10">
@@ -1128,16 +1128,16 @@
         <v>text/css</v>
       </c>
       <c r="E21">
-        <v>21145</v>
+        <v>21178</v>
       </c>
       <c r="F21">
         <v>122955</v>
       </c>
       <c r="G21">
-        <v>0.006149240885</v>
+        <v>0.006158837713999999</v>
       </c>
       <c r="H21">
-        <v>0.008100256203</v>
+        <v>0.008112897889200001</v>
       </c>
     </row>
     <row r="22">
@@ -1466,16 +1466,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E34">
-        <v>6114</v>
+        <v>6117</v>
       </c>
       <c r="F34">
         <v>16716</v>
       </c>
       <c r="G34">
-        <v>0.0017780306819999998</v>
+        <v>0.0017789031209999998</v>
       </c>
       <c r="H34">
-        <v>0.0023421596796000003</v>
+        <v>0.0023433089238</v>
       </c>
     </row>
     <row r="35">
@@ -1622,16 +1622,16 @@
         <v>text/css</v>
       </c>
       <c r="E40">
-        <v>683</v>
+        <v>1057</v>
       </c>
       <c r="F40">
         <v>7704</v>
       </c>
       <c r="G40">
-        <v>0.00019862527899999999</v>
+        <v>0.000307389341</v>
       </c>
       <c r="H40">
-        <v>0.0002616445962</v>
+        <v>0.0004049170398000001</v>
       </c>
     </row>
     <row r="41">
@@ -1648,16 +1648,16 @@
         <v>text/css</v>
       </c>
       <c r="E41">
-        <v>961</v>
+        <v>568</v>
       </c>
       <c r="F41">
         <v>1803</v>
       </c>
       <c r="G41">
-        <v>0.00027947129299999996</v>
+        <v>0.00016518178399999996</v>
       </c>
       <c r="H41">
-        <v>0.0003681412254</v>
+        <v>0.0002175902352</v>
       </c>
     </row>
     <row r="42">
@@ -1674,16 +1674,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E42">
-        <v>8878</v>
+        <v>8879</v>
       </c>
       <c r="F42">
         <v>30057</v>
       </c>
       <c r="G42">
-        <v>0.002581837814</v>
+        <v>0.0025821286269999996</v>
       </c>
       <c r="H42">
-        <v>0.003400996669200001</v>
+        <v>0.0034013797505999996</v>
       </c>
     </row>
     <row r="43">
@@ -1986,16 +1986,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E54">
-        <v>182654</v>
+        <v>182655</v>
       </c>
       <c r="F54">
         <v>182292</v>
       </c>
       <c r="G54">
-        <v>0.05311815770199999</v>
+        <v>0.05311844851499999</v>
       </c>
       <c r="H54">
-        <v>0.0699713500356</v>
+        <v>0.06997173311700002</v>
       </c>
     </row>
     <row r="55">
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>https://speech2.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech8.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C55" t="str">
         <v>Script</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>https://speech2.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech8.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C56" t="str">
         <v>Script</v>
@@ -2168,16 +2168,16 @@
         <v>text/html</v>
       </c>
       <c r="E61">
-        <v>19006</v>
+        <v>19005</v>
       </c>
       <c r="F61">
         <v>58295</v>
       </c>
       <c r="G61">
-        <v>0.005527191877999999</v>
+        <v>0.005526901064999999</v>
       </c>
       <c r="H61">
-        <v>0.007280845088400001</v>
+        <v>0.007280462006999999</v>
       </c>
     </row>
     <row r="62">
@@ -2194,16 +2194,16 @@
         <v>text/css</v>
       </c>
       <c r="E62">
-        <v>18489</v>
+        <v>28150</v>
       </c>
       <c r="F62">
         <v>190673</v>
       </c>
       <c r="G62">
-        <v>0.005376841556999999</v>
+        <v>0.008186385949999998</v>
       </c>
       <c r="H62">
-        <v>0.0070827920046</v>
+        <v>0.01078374141</v>
       </c>
     </row>
     <row r="63">
@@ -2220,16 +2220,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E63">
-        <v>20608</v>
+        <v>26223</v>
       </c>
       <c r="F63">
         <v>87701</v>
       </c>
       <c r="G63">
-        <v>0.005993074304</v>
+        <v>0.007625989298999999</v>
       </c>
       <c r="H63">
-        <v>0.007894541491200002</v>
+        <v>0.010045543552200002</v>
       </c>
     </row>
     <row r="64">
@@ -2246,16 +2246,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E64">
-        <v>9595</v>
+        <v>12284</v>
       </c>
       <c r="F64">
         <v>31186</v>
       </c>
       <c r="G64">
-        <v>0.0027903507349999997</v>
+        <v>0.0035723468919999996</v>
       </c>
       <c r="H64">
-        <v>0.0036756660330000005</v>
+        <v>0.0047057719176</v>
       </c>
     </row>
     <row r="65">
@@ -2272,16 +2272,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E65">
-        <v>292819</v>
+        <v>406802</v>
       </c>
       <c r="F65">
         <v>1580659</v>
       </c>
       <c r="G65">
-        <v>0.085155571847</v>
+        <v>0.11830331002599999</v>
       </c>
       <c r="H65">
-        <v>0.11217351246660001</v>
+        <v>0.15583827968280003</v>
       </c>
     </row>
     <row r="66">
@@ -2350,16 +2350,16 @@
         <v>text/css</v>
       </c>
       <c r="E68">
-        <v>19904</v>
+        <v>19905</v>
       </c>
       <c r="F68">
         <v>134048</v>
       </c>
       <c r="G68">
-        <v>0.005788341951999999</v>
+        <v>0.005788632764999999</v>
       </c>
       <c r="H68">
-        <v>0.007624852185600002</v>
+        <v>0.007625235267000001</v>
       </c>
     </row>
     <row r="69">
@@ -2376,16 +2376,16 @@
         <v>text/css</v>
       </c>
       <c r="E69">
-        <v>980</v>
+        <v>1180</v>
       </c>
       <c r="F69">
         <v>3772</v>
       </c>
       <c r="G69">
-        <v>0.00028499673999999995</v>
+        <v>0.00034315934</v>
       </c>
       <c r="H69">
-        <v>0.000375419772</v>
+        <v>0.00045203605199999996</v>
       </c>
     </row>
     <row r="70">
@@ -2402,16 +2402,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E70">
-        <v>34220</v>
+        <v>43667</v>
       </c>
       <c r="F70">
         <v>97169</v>
       </c>
       <c r="G70">
-        <v>0.009951620859999998</v>
+        <v>0.012698931270999999</v>
       </c>
       <c r="H70">
-        <v>0.013109045508000001</v>
+        <v>0.0167280154938</v>
       </c>
     </row>
     <row r="71">
@@ -2428,16 +2428,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E71">
-        <v>4389</v>
+        <v>5180</v>
       </c>
       <c r="F71">
         <v>10057</v>
       </c>
       <c r="G71">
-        <v>0.001276378257</v>
+        <v>0.0015064113399999998</v>
       </c>
       <c r="H71">
-        <v>0.0016813442646000003</v>
+        <v>0.0019843616520000005</v>
       </c>
     </row>
     <row r="72">
@@ -2454,16 +2454,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E72">
-        <v>4561</v>
+        <v>5347</v>
       </c>
       <c r="F72">
         <v>13616</v>
       </c>
       <c r="G72">
-        <v>0.0013263980929999997</v>
+        <v>0.0015549771109999997</v>
       </c>
       <c r="H72">
-        <v>0.0017472342654000004</v>
+        <v>0.0020483362458000006</v>
       </c>
     </row>
     <row r="73">
@@ -2480,16 +2480,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E73">
-        <v>2689</v>
+        <v>3148</v>
       </c>
       <c r="F73">
         <v>8009</v>
       </c>
       <c r="G73">
-        <v>0.0007819961569999999</v>
+        <v>0.0009154793239999999</v>
       </c>
       <c r="H73">
-        <v>0.0010301058846</v>
+        <v>0.0012059402472000002</v>
       </c>
     </row>
     <row r="74">
@@ -2532,16 +2532,16 @@
         <v>text/css</v>
       </c>
       <c r="E75">
-        <v>960</v>
+        <v>1136</v>
       </c>
       <c r="F75">
         <v>3044</v>
       </c>
       <c r="G75">
-        <v>0.00027918047999999995</v>
+        <v>0.0003303635679999999</v>
       </c>
       <c r="H75">
-        <v>0.000367758144</v>
+        <v>0.0004351804704</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>text/css</v>
       </c>
       <c r="E76">
-        <v>2691</v>
+        <v>3173</v>
       </c>
       <c r="F76">
         <v>9558</v>
       </c>
       <c r="G76">
-        <v>0.0007825777829999999</v>
+        <v>0.0009227496489999998</v>
       </c>
       <c r="H76">
-        <v>0.0010308720474000001</v>
+        <v>0.0012155172822000003</v>
       </c>
     </row>
     <row r="77">
@@ -2662,16 +2662,16 @@
         <v>text/css</v>
       </c>
       <c r="E80">
-        <v>14679</v>
+        <v>21178</v>
       </c>
       <c r="F80">
         <v>122955</v>
       </c>
       <c r="G80">
-        <v>0.004268844026999999</v>
+        <v>0.006158837713999999</v>
       </c>
       <c r="H80">
-        <v>0.0056232518706</v>
+        <v>0.008112897889200001</v>
       </c>
     </row>
     <row r="81">
@@ -2896,16 +2896,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E89">
-        <v>170701</v>
+        <v>222371</v>
       </c>
       <c r="F89">
         <v>656394</v>
       </c>
       <c r="G89">
-        <v>0.04964206991299999</v>
+        <v>0.064668377623</v>
       </c>
       <c r="H89">
-        <v>0.06539237806140001</v>
+        <v>0.08518619399940001</v>
       </c>
     </row>
     <row r="90">
@@ -3000,16 +3000,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E93">
-        <v>4883</v>
+        <v>6117</v>
       </c>
       <c r="F93">
         <v>16716</v>
       </c>
       <c r="G93">
-        <v>0.0014200398789999999</v>
+        <v>0.0017789031209999998</v>
       </c>
       <c r="H93">
-        <v>0.0018705864762</v>
+        <v>0.0023433089238</v>
       </c>
     </row>
     <row r="94">
@@ -3026,16 +3026,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E94">
-        <v>2267</v>
+        <v>2620</v>
       </c>
       <c r="F94">
         <v>5038</v>
       </c>
       <c r="G94">
-        <v>0.000659273071</v>
+        <v>0.0007619300599999999</v>
       </c>
       <c r="H94">
-        <v>0.0008684455338000001</v>
+        <v>0.001003673268</v>
       </c>
     </row>
     <row r="95">
@@ -3052,16 +3052,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E95">
-        <v>1973</v>
+        <v>2310</v>
       </c>
       <c r="F95">
         <v>4807</v>
       </c>
       <c r="G95">
-        <v>0.0005737740489999999</v>
+        <v>0.0006717780299999999</v>
       </c>
       <c r="H95">
-        <v>0.0007558196022000001</v>
+        <v>0.000884918034</v>
       </c>
     </row>
     <row r="96">
@@ -3156,16 +3156,16 @@
         <v>text/css</v>
       </c>
       <c r="E99">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="F99">
         <v>7704</v>
       </c>
       <c r="G99">
-        <v>0.0003065169019999999</v>
+        <v>0.000307389341</v>
       </c>
       <c r="H99">
-        <v>0.00040376779559999997</v>
+        <v>0.0004049170398000001</v>
       </c>
     </row>
     <row r="100">
@@ -3182,16 +3182,16 @@
         <v>text/css</v>
       </c>
       <c r="E100">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="F100">
         <v>1803</v>
       </c>
       <c r="G100">
-        <v>0.00017157967</v>
+        <v>0.00016518178399999996</v>
       </c>
       <c r="H100">
-        <v>0.00022601802599999998</v>
+        <v>0.0002175902352</v>
       </c>
     </row>
     <row r="101">
@@ -3312,16 +3312,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E105">
-        <v>23209</v>
+        <v>69447</v>
       </c>
       <c r="F105">
         <v>69141</v>
       </c>
       <c r="G105">
-        <v>0.006749478916999999</v>
+        <v>0.020196090410999998</v>
       </c>
       <c r="H105">
-        <v>0.0088909362126</v>
+        <v>0.026603853985800008</v>
       </c>
     </row>
     <row r="106">
@@ -3520,16 +3520,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E113">
-        <v>182654</v>
+        <v>182660</v>
       </c>
       <c r="F113">
         <v>182292</v>
       </c>
       <c r="G113">
-        <v>0.05311815770199999</v>
+        <v>0.05311990257999999</v>
       </c>
       <c r="H113">
-        <v>0.0699713500356</v>
+        <v>0.069973648524</v>
       </c>
     </row>
     <row r="114">
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="B114" t="str">
-        <v>https://speech13.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech19.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C114" t="str">
         <v>Script</v>
@@ -3563,7 +3563,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="str">
-        <v>https://speech13.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech19.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C115" t="str">
         <v>Script</v>
@@ -3572,16 +3572,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E115">
-        <v>13135</v>
+        <v>13136</v>
       </c>
       <c r="F115">
         <v>42732</v>
       </c>
       <c r="G115">
-        <v>0.0038198287549999995</v>
+        <v>0.0038201195679999993</v>
       </c>
       <c r="H115">
-        <v>0.005031774189000001</v>
+        <v>0.005032157270400001</v>
       </c>
     </row>
     <row r="116">
@@ -3702,16 +3702,16 @@
         <v>text/html</v>
       </c>
       <c r="E120">
-        <v>18971</v>
+        <v>18991</v>
       </c>
       <c r="F120">
         <v>58295</v>
       </c>
       <c r="G120">
-        <v>0.005517013422999999</v>
+        <v>0.005522829682999999</v>
       </c>
       <c r="H120">
-        <v>0.0072674372394000005</v>
+        <v>0.0072750988674000015</v>
       </c>
     </row>
     <row r="121">
@@ -3728,16 +3728,16 @@
         <v>text/css</v>
       </c>
       <c r="E121">
-        <v>18489</v>
+        <v>28150</v>
       </c>
       <c r="F121">
         <v>190673</v>
       </c>
       <c r="G121">
-        <v>0.005376841556999999</v>
+        <v>0.008186385949999998</v>
       </c>
       <c r="H121">
-        <v>0.0070827920046</v>
+        <v>0.01078374141</v>
       </c>
     </row>
     <row r="122">
@@ -3754,16 +3754,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E122">
-        <v>20608</v>
+        <v>26223</v>
       </c>
       <c r="F122">
         <v>87701</v>
       </c>
       <c r="G122">
-        <v>0.005993074304</v>
+        <v>0.007625989298999999</v>
       </c>
       <c r="H122">
-        <v>0.007894541491200002</v>
+        <v>0.010045543552200002</v>
       </c>
     </row>
     <row r="123">
@@ -3780,16 +3780,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E123">
-        <v>9595</v>
+        <v>12284</v>
       </c>
       <c r="F123">
         <v>31186</v>
       </c>
       <c r="G123">
-        <v>0.0027903507349999997</v>
+        <v>0.0035723468919999996</v>
       </c>
       <c r="H123">
-        <v>0.0036756660330000005</v>
+        <v>0.0047057719176</v>
       </c>
     </row>
     <row r="124">
@@ -3910,16 +3910,16 @@
         <v>text/css</v>
       </c>
       <c r="E128">
-        <v>980</v>
+        <v>1180</v>
       </c>
       <c r="F128">
         <v>3772</v>
       </c>
       <c r="G128">
-        <v>0.00028499673999999995</v>
+        <v>0.00034315934</v>
       </c>
       <c r="H128">
-        <v>0.000375419772</v>
+        <v>0.00045203605199999996</v>
       </c>
     </row>
     <row r="129">
@@ -3962,16 +3962,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E130">
-        <v>4389</v>
+        <v>5180</v>
       </c>
       <c r="F130">
         <v>10057</v>
       </c>
       <c r="G130">
-        <v>0.001276378257</v>
+        <v>0.0015064113399999998</v>
       </c>
       <c r="H130">
-        <v>0.0016813442646000003</v>
+        <v>0.0019843616520000005</v>
       </c>
     </row>
     <row r="131">
@@ -3988,16 +3988,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E131">
-        <v>4561</v>
+        <v>5347</v>
       </c>
       <c r="F131">
         <v>13616</v>
       </c>
       <c r="G131">
-        <v>0.0013263980929999997</v>
+        <v>0.0015549771109999997</v>
       </c>
       <c r="H131">
-        <v>0.0017472342654000004</v>
+        <v>0.0020483362458000006</v>
       </c>
     </row>
     <row r="132">
@@ -4014,16 +4014,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E132">
-        <v>2689</v>
+        <v>3148</v>
       </c>
       <c r="F132">
         <v>8009</v>
       </c>
       <c r="G132">
-        <v>0.0007819961569999999</v>
+        <v>0.0009154793239999999</v>
       </c>
       <c r="H132">
-        <v>0.0010301058846</v>
+        <v>0.0012059402472000002</v>
       </c>
     </row>
     <row r="133">
@@ -4066,16 +4066,16 @@
         <v>text/css</v>
       </c>
       <c r="E134">
-        <v>960</v>
+        <v>1136</v>
       </c>
       <c r="F134">
         <v>3044</v>
       </c>
       <c r="G134">
-        <v>0.00027918047999999995</v>
+        <v>0.0003303635679999999</v>
       </c>
       <c r="H134">
-        <v>0.000367758144</v>
+        <v>0.0004351804704</v>
       </c>
     </row>
     <row r="135">
@@ -4092,16 +4092,16 @@
         <v>text/css</v>
       </c>
       <c r="E135">
-        <v>2691</v>
+        <v>3173</v>
       </c>
       <c r="F135">
         <v>9558</v>
       </c>
       <c r="G135">
-        <v>0.0007825777829999999</v>
+        <v>0.0009227496489999998</v>
       </c>
       <c r="H135">
-        <v>0.0010308720474000001</v>
+        <v>0.0012155172822000003</v>
       </c>
     </row>
     <row r="136">
@@ -4196,16 +4196,16 @@
         <v>text/css</v>
       </c>
       <c r="E139">
-        <v>14679</v>
+        <v>21178</v>
       </c>
       <c r="F139">
         <v>122955</v>
       </c>
       <c r="G139">
-        <v>0.004268844026999999</v>
+        <v>0.006158837713999999</v>
       </c>
       <c r="H139">
-        <v>0.0056232518706</v>
+        <v>0.008112897889200001</v>
       </c>
     </row>
     <row r="140">
@@ -4430,16 +4430,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E148">
-        <v>170701</v>
+        <v>222371</v>
       </c>
       <c r="F148">
         <v>656394</v>
       </c>
       <c r="G148">
-        <v>0.04964206991299999</v>
+        <v>0.064668377623</v>
       </c>
       <c r="H148">
-        <v>0.06539237806140001</v>
+        <v>0.08518619399940001</v>
       </c>
     </row>
     <row r="149">
@@ -4534,16 +4534,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E152">
-        <v>4883</v>
+        <v>6117</v>
       </c>
       <c r="F152">
         <v>16716</v>
       </c>
       <c r="G152">
-        <v>0.0014200398789999999</v>
+        <v>0.0017789031209999998</v>
       </c>
       <c r="H152">
-        <v>0.0018705864762</v>
+        <v>0.0023433089238</v>
       </c>
     </row>
     <row r="153">
@@ -4560,16 +4560,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E153">
-        <v>2267</v>
+        <v>2620</v>
       </c>
       <c r="F153">
         <v>5038</v>
       </c>
       <c r="G153">
-        <v>0.000659273071</v>
+        <v>0.0007619300599999999</v>
       </c>
       <c r="H153">
-        <v>0.0008684455338000001</v>
+        <v>0.001003673268</v>
       </c>
     </row>
     <row r="154">
@@ -4586,16 +4586,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E154">
-        <v>1973</v>
+        <v>2310</v>
       </c>
       <c r="F154">
         <v>4807</v>
       </c>
       <c r="G154">
-        <v>0.0005737740489999999</v>
+        <v>0.0006717780299999999</v>
       </c>
       <c r="H154">
-        <v>0.0007558196022000001</v>
+        <v>0.000884918034</v>
       </c>
     </row>
     <row r="155">
@@ -4690,16 +4690,16 @@
         <v>text/css</v>
       </c>
       <c r="E158">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="F158">
         <v>7704</v>
       </c>
       <c r="G158">
-        <v>0.00019193657999999999</v>
+        <v>0.00019891609199999998</v>
       </c>
       <c r="H158">
-        <v>0.000252833724</v>
+        <v>0.00026202767760000005</v>
       </c>
     </row>
     <row r="159">
@@ -4745,7 +4745,7 @@
         <v>8879</v>
       </c>
       <c r="F160">
-        <v>30057</v>
+        <v>30058</v>
       </c>
       <c r="G160">
         <v>0.0025821286269999996</v>
@@ -4846,16 +4846,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E164">
-        <v>23209</v>
+        <v>69447</v>
       </c>
       <c r="F164">
         <v>69141</v>
       </c>
       <c r="G164">
-        <v>0.006749478916999999</v>
+        <v>0.020196090410999998</v>
       </c>
       <c r="H164">
-        <v>0.0088909362126</v>
+        <v>0.026603853985800008</v>
       </c>
     </row>
     <row r="165">
@@ -5071,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="str">
-        <v>https://speech7.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech11.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C173" t="str">
         <v>Script</v>
@@ -5097,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="str">
-        <v>https://speech7.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech11.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C174" t="str">
         <v>Script</v>
@@ -5109,7 +5109,7 @@
         <v>13135</v>
       </c>
       <c r="F174">
-        <v>42731</v>
+        <v>42732</v>
       </c>
       <c r="G174">
         <v>0.0038198287549999995</v>
@@ -5258,7 +5258,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>56967</v>
+        <v>57023</v>
       </c>
       <c r="D2">
         <v>174885</v>
@@ -5272,7 +5272,7 @@
         <v>48</v>
       </c>
       <c r="C3">
-        <v>338088</v>
+        <v>372145</v>
       </c>
       <c r="D3">
         <v>1798389</v>
@@ -5286,10 +5286,10 @@
         <v>63</v>
       </c>
       <c r="C4">
-        <v>2117329</v>
+        <v>2368632</v>
       </c>
       <c r="D4">
-        <v>8430839</v>
+        <v>8430841</v>
       </c>
     </row>
     <row r="5">
@@ -5300,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>2614685</v>
+        <v>2707161</v>
       </c>
       <c r="D5">
         <v>2711154</v>
@@ -5314,7 +5314,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1197489</v>
+        <v>1197496</v>
       </c>
       <c r="D6">
         <v>1195224</v>
@@ -5381,13 +5381,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2297354</v>
+        <v>2297411</v>
       </c>
       <c r="C2">
-        <v>0.668100408802</v>
+        <v>0.6681169851429999</v>
       </c>
       <c r="D2">
-        <v>0.8800735866156001</v>
+        <v>0.8800954222554002</v>
       </c>
     </row>
     <row r="3">
@@ -5395,13 +5395,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2046789</v>
+        <v>2297397</v>
       </c>
       <c r="C3">
-        <v>0.595232849457</v>
+        <v>0.6681129137609999</v>
       </c>
       <c r="D3">
-        <v>0.7840867956245998</v>
+        <v>0.8800900591158001</v>
       </c>
     </row>
     <row r="4">
@@ -5409,13 +5409,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2046730</v>
+        <v>2173964</v>
       </c>
       <c r="C4">
-        <v>0.5952156914899999</v>
+        <v>0.6322169927319999</v>
       </c>
       <c r="D4">
-        <v>0.7840641938220001</v>
+        <v>0.8328051726696001</v>
       </c>
     </row>
     <row r="5">
@@ -5423,13 +5423,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>2046789</v>
+        <v>2297397</v>
       </c>
       <c r="C5">
-        <v>0.595232849457</v>
+        <v>0.6681129137609999</v>
       </c>
       <c r="D5">
-        <v>0.7840867956245998</v>
+        <v>0.8800900591158001</v>
       </c>
     </row>
   </sheetData>
